--- a/Agile Full Stack/Projects/Full Stack - Ecommerce Project Marking Sheet.xlsx
+++ b/Agile Full Stack/Projects/Full Stack - Ecommerce Project Marking Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workplace\COLLEGE\dept-term-three\Agile Full Stack\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34AC86-3F90-4030-8FC9-8E380524F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48148FAD-7B2B-4F00-97EA-E1B65B5DA36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="214">
   <si>
     <t>Confirm</t>
   </si>
@@ -745,6 +723,9 @@
   <si>
     <t>Active Storage uploads are stored to Google Cloud or AWS S3.</t>
   </si>
+  <si>
+    <t>- Be sure to use the Kaminari gem for this as the will_paginate gem conflicts with Active Admin.</t>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +734,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -886,6 +867,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -926,13 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
@@ -964,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1085,25 +1078,48 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,8 +1566,8 @@
   <dimension ref="A1:AC1119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157:XFD157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2631,53 +2647,53 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
     </row>
-    <row r="27" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="19" t="s">
+    <row r="27" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="52" t="s">
+      <c r="E27" s="55"/>
+      <c r="F27" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="57">
         <v>2</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12">
+      <c r="H27" s="55"/>
+      <c r="I27" s="58">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="58">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="58">
         <f>IF(F27 = "yes",G27, 0)</f>
         <v>2</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
     </row>
     <row r="28" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
@@ -2867,13 +2883,12 @@
       <c r="AB32" s="48"/>
       <c r="AC32" s="48"/>
     </row>
-    <row r="33" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="3" t="e" cm="1">
-        <f t="array" ref="D33">- Be sure to use the Kaminari gem for this as the will_paginate gem conflicts with Active Admin.</f>
-        <v>#NAME?</v>
+      <c r="D33" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>12</v>
@@ -4857,53 +4872,53 @@
       <c r="AB85" s="7"/>
       <c r="AC85" s="7"/>
     </row>
-    <row r="86" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="19" t="s">
+    <row r="86" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="21" t="s">
+      <c r="E86" s="55"/>
+      <c r="F86" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G86" s="22">
+      <c r="G86" s="57">
         <v>2</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="12">
+      <c r="H86" s="55"/>
+      <c r="I86" s="58">
         <f>IF(OR(F86 = "maybe", F86 = "yes"),G86, 0)</f>
         <v>2</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="58">
         <f>IF(F86 = "yes",G86, 0)</f>
         <v>2</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K86" s="58">
         <f>IF(F86 = "yes",G86, 0)</f>
         <v>2</v>
       </c>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="7"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="60"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="60"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="60"/>
+      <c r="Z86" s="60"/>
+      <c r="AA86" s="60"/>
+      <c r="AB86" s="60"/>
+      <c r="AC86" s="60"/>
     </row>
     <row r="87" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A87" s="7"/>
@@ -4975,53 +4990,53 @@
       <c r="AB88" s="7"/>
       <c r="AC88" s="7"/>
     </row>
-    <row r="89" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="19" t="s">
+    <row r="89" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="21" t="s">
+      <c r="E89" s="55"/>
+      <c r="F89" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G89" s="22">
+      <c r="G89" s="57">
         <v>4</v>
       </c>
-      <c r="H89" s="10"/>
-      <c r="I89" s="12">
+      <c r="H89" s="55"/>
+      <c r="I89" s="58">
         <f>IF(OR(F89 = "maybe", F89 = "yes"),G89, 0)</f>
         <v>4</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="58">
         <f>IF(F89 = "yes",G89, 0)</f>
         <v>4</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K89" s="58">
         <f>IF(F89 = "yes",G89, 0)</f>
         <v>4</v>
       </c>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="7"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="60"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="60"/>
+      <c r="X89" s="60"/>
+      <c r="Y89" s="60"/>
+      <c r="Z89" s="60"/>
+      <c r="AA89" s="60"/>
+      <c r="AB89" s="60"/>
+      <c r="AC89" s="60"/>
     </row>
     <row r="90" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A90" s="7"/>
@@ -5128,53 +5143,53 @@
       <c r="AB92" s="7"/>
       <c r="AC92" s="7"/>
     </row>
-    <row r="93" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="19" t="s">
+    <row r="93" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="21" t="s">
+      <c r="E93" s="60"/>
+      <c r="F93" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="57">
         <v>2</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="12">
+      <c r="H93" s="55"/>
+      <c r="I93" s="58">
         <f>IF(OR(F93 = "maybe", F93 = "yes"),G93, 0)</f>
         <v>2</v>
       </c>
-      <c r="J93" s="12">
+      <c r="J93" s="58">
         <f>IF(F93 = "yes",G93, 0)</f>
         <v>2</v>
       </c>
-      <c r="K93" s="12">
+      <c r="K93" s="58">
         <f>IF(F93 = "yes",G93, 0)</f>
         <v>2</v>
       </c>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="60"/>
+      <c r="O93" s="60"/>
+      <c r="P93" s="60"/>
+      <c r="Q93" s="60"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="60"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="60"/>
+      <c r="V93" s="60"/>
+      <c r="W93" s="60"/>
+      <c r="X93" s="60"/>
+      <c r="Y93" s="60"/>
+      <c r="Z93" s="60"/>
+      <c r="AA93" s="60"/>
+      <c r="AB93" s="60"/>
+      <c r="AC93" s="60"/>
     </row>
     <row r="94" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="7"/>
@@ -5282,103 +5297,103 @@
       <c r="AB96" s="7"/>
       <c r="AC96" s="7"/>
     </row>
-    <row r="97" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="19" t="s">
+    <row r="97" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="21" t="s">
+      <c r="E97" s="55"/>
+      <c r="F97" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="57">
         <v>2</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H97" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="58">
         <f t="shared" ref="I97:I98" si="15">IF(OR(F97 = "maybe", F97 = "yes"),G97, 0)</f>
         <v>2</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97" s="58">
         <f t="shared" ref="J97:J98" si="16">IF(F97 = "yes",G97, 0)</f>
         <v>2</v>
       </c>
-      <c r="K97" s="12">
+      <c r="K97" s="58">
         <f>IF(F97 = "yes",G97, $M$2)</f>
         <v>2</v>
       </c>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="7"/>
-    </row>
-    <row r="98" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="19" t="s">
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="60"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="60"/>
+      <c r="T97" s="60"/>
+      <c r="U97" s="60"/>
+      <c r="V97" s="60"/>
+      <c r="W97" s="60"/>
+      <c r="X97" s="60"/>
+      <c r="Y97" s="60"/>
+      <c r="Z97" s="60"/>
+      <c r="AA97" s="60"/>
+      <c r="AB97" s="60"/>
+      <c r="AC97" s="60"/>
+    </row>
+    <row r="98" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="21" t="s">
+      <c r="E98" s="55"/>
+      <c r="F98" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="57">
         <v>2</v>
       </c>
-      <c r="H98" s="10"/>
-      <c r="I98" s="12">
+      <c r="H98" s="55"/>
+      <c r="I98" s="58">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="J98" s="12">
+      <c r="J98" s="58">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="K98" s="12">
+      <c r="K98" s="58">
         <f>IF(F98 = "yes",G98, 0)</f>
         <v>2</v>
       </c>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="7"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="60"/>
+      <c r="R98" s="60"/>
+      <c r="S98" s="60"/>
+      <c r="T98" s="60"/>
+      <c r="U98" s="60"/>
+      <c r="V98" s="60"/>
+      <c r="W98" s="60"/>
+      <c r="X98" s="60"/>
+      <c r="Y98" s="60"/>
+      <c r="Z98" s="60"/>
+      <c r="AA98" s="60"/>
+      <c r="AB98" s="60"/>
+      <c r="AC98" s="60"/>
     </row>
     <row r="99" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="7"/>
@@ -5415,53 +5430,53 @@
       <c r="AB99" s="7"/>
       <c r="AC99" s="7"/>
     </row>
-    <row r="100" spans="1:29" ht="37" x14ac:dyDescent="0.45">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="19" t="s">
+    <row r="100" spans="1:29" s="61" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="21" t="s">
+      <c r="E100" s="55"/>
+      <c r="F100" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G100" s="57">
         <v>2</v>
       </c>
-      <c r="H100" s="10"/>
-      <c r="I100" s="12">
+      <c r="H100" s="55"/>
+      <c r="I100" s="58">
         <f>IF(OR(F100 = "maybe", F100 = "yes"),G100, 0)</f>
         <v>2</v>
       </c>
-      <c r="J100" s="12">
+      <c r="J100" s="58">
         <f>IF(F100 = "yes",G100, 0)</f>
         <v>2</v>
       </c>
-      <c r="K100" s="12">
+      <c r="K100" s="58">
         <f>IF(F100 = "yes",G100, 0)</f>
         <v>2</v>
       </c>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="7"/>
-      <c r="Y100" s="7"/>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="7"/>
-      <c r="AB100" s="7"/>
-      <c r="AC100" s="7"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="60"/>
+      <c r="Q100" s="60"/>
+      <c r="R100" s="60"/>
+      <c r="S100" s="60"/>
+      <c r="T100" s="60"/>
+      <c r="U100" s="60"/>
+      <c r="V100" s="60"/>
+      <c r="W100" s="60"/>
+      <c r="X100" s="60"/>
+      <c r="Y100" s="60"/>
+      <c r="Z100" s="60"/>
+      <c r="AA100" s="60"/>
+      <c r="AB100" s="60"/>
+      <c r="AC100" s="60"/>
     </row>
     <row r="101" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A101" s="7"/>
@@ -5568,53 +5583,53 @@
       <c r="AB103" s="7"/>
       <c r="AC103" s="7"/>
     </row>
-    <row r="104" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="19" t="s">
+    <row r="104" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="21" t="s">
+      <c r="E104" s="55"/>
+      <c r="F104" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G104" s="22">
+      <c r="G104" s="57">
         <v>4</v>
       </c>
-      <c r="H104" s="10"/>
-      <c r="I104" s="12">
+      <c r="H104" s="55"/>
+      <c r="I104" s="58">
         <f>IF(OR(F104 = "maybe", F104 = "yes"),G104, 0)</f>
         <v>4</v>
       </c>
-      <c r="J104" s="12">
+      <c r="J104" s="58">
         <f>IF(F104 = "yes",G104, 0)</f>
         <v>4</v>
       </c>
-      <c r="K104" s="12">
+      <c r="K104" s="58">
         <f>IF(F104 = "yes",G104, 0)</f>
         <v>4</v>
       </c>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="7"/>
-      <c r="Y104" s="7"/>
-      <c r="Z104" s="7"/>
-      <c r="AA104" s="7"/>
-      <c r="AB104" s="7"/>
-      <c r="AC104" s="7"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="59"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="60"/>
+      <c r="P104" s="60"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="60"/>
+      <c r="S104" s="60"/>
+      <c r="T104" s="60"/>
+      <c r="U104" s="60"/>
+      <c r="V104" s="60"/>
+      <c r="W104" s="60"/>
+      <c r="X104" s="60"/>
+      <c r="Y104" s="60"/>
+      <c r="Z104" s="60"/>
+      <c r="AA104" s="60"/>
+      <c r="AB104" s="60"/>
+      <c r="AC104" s="60"/>
     </row>
     <row r="105" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A105" s="7"/>
@@ -6007,101 +6022,101 @@
       <c r="AB114" s="48"/>
       <c r="AC114" s="48"/>
     </row>
-    <row r="115" spans="1:29" ht="37" x14ac:dyDescent="0.45">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="19" t="s">
+    <row r="115" spans="1:29" s="61" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D115" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="52" t="s">
+      <c r="E115" s="55"/>
+      <c r="F115" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G115" s="22">
+      <c r="G115" s="57">
         <v>2</v>
       </c>
-      <c r="H115" s="10"/>
-      <c r="I115" s="12">
+      <c r="H115" s="55"/>
+      <c r="I115" s="58">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="J115" s="12">
+      <c r="J115" s="58">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="K115" s="12">
+      <c r="K115" s="58">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
-      <c r="Z115" s="7"/>
-      <c r="AA115" s="7"/>
-      <c r="AB115" s="7"/>
-      <c r="AC115" s="7"/>
-    </row>
-    <row r="116" spans="1:29" ht="37" x14ac:dyDescent="0.45">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="19" t="s">
+      <c r="L115" s="59"/>
+      <c r="M115" s="59"/>
+      <c r="N115" s="60"/>
+      <c r="O115" s="60"/>
+      <c r="P115" s="60"/>
+      <c r="Q115" s="60"/>
+      <c r="R115" s="60"/>
+      <c r="S115" s="60"/>
+      <c r="T115" s="60"/>
+      <c r="U115" s="60"/>
+      <c r="V115" s="60"/>
+      <c r="W115" s="60"/>
+      <c r="X115" s="60"/>
+      <c r="Y115" s="60"/>
+      <c r="Z115" s="60"/>
+      <c r="AA115" s="60"/>
+      <c r="AB115" s="60"/>
+      <c r="AC115" s="60"/>
+    </row>
+    <row r="116" spans="1:29" s="61" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="52" t="s">
+      <c r="E116" s="55"/>
+      <c r="F116" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G116" s="22">
+      <c r="G116" s="57">
         <v>2</v>
       </c>
-      <c r="H116" s="10"/>
-      <c r="I116" s="12">
+      <c r="H116" s="55"/>
+      <c r="I116" s="58">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="J116" s="12">
+      <c r="J116" s="58">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="K116" s="12">
+      <c r="K116" s="58">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
-      <c r="Z116" s="7"/>
-      <c r="AA116" s="7"/>
-      <c r="AB116" s="7"/>
-      <c r="AC116" s="7"/>
+      <c r="L116" s="59"/>
+      <c r="M116" s="59"/>
+      <c r="N116" s="60"/>
+      <c r="O116" s="60"/>
+      <c r="P116" s="60"/>
+      <c r="Q116" s="60"/>
+      <c r="R116" s="60"/>
+      <c r="S116" s="60"/>
+      <c r="T116" s="60"/>
+      <c r="U116" s="60"/>
+      <c r="V116" s="60"/>
+      <c r="W116" s="60"/>
+      <c r="X116" s="60"/>
+      <c r="Y116" s="60"/>
+      <c r="Z116" s="60"/>
+      <c r="AA116" s="60"/>
+      <c r="AB116" s="60"/>
+      <c r="AC116" s="60"/>
     </row>
     <row r="117" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A117" s="7"/>
@@ -6430,101 +6445,101 @@
       <c r="AB125" s="7"/>
       <c r="AC125" s="7"/>
     </row>
-    <row r="126" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="19" t="s">
+    <row r="126" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A126" s="60"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="21" t="s">
+      <c r="E126" s="55"/>
+      <c r="F126" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="57">
         <v>4</v>
       </c>
-      <c r="H126" s="10"/>
-      <c r="I126" s="12">
+      <c r="H126" s="55"/>
+      <c r="I126" s="58">
         <f t="shared" ref="I126:I128" si="20">IF(OR(F126 = "maybe", F126 = "yes"),G126, 0)</f>
         <v>4</v>
       </c>
-      <c r="J126" s="12">
+      <c r="J126" s="58">
         <f t="shared" ref="J126:J128" si="21">IF(F126 = "yes",G126, 0)</f>
         <v>4</v>
       </c>
-      <c r="K126" s="12">
+      <c r="K126" s="58">
         <f t="shared" ref="K126:K128" si="22">IF(F126 = "yes",G126, 0)</f>
         <v>4</v>
       </c>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
-      <c r="W126" s="7"/>
-      <c r="X126" s="7"/>
-      <c r="Y126" s="7"/>
-      <c r="Z126" s="7"/>
-      <c r="AA126" s="7"/>
-      <c r="AB126" s="7"/>
-      <c r="AC126" s="7"/>
-    </row>
-    <row r="127" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="19" t="s">
+      <c r="L126" s="59"/>
+      <c r="M126" s="59"/>
+      <c r="N126" s="60"/>
+      <c r="O126" s="60"/>
+      <c r="P126" s="60"/>
+      <c r="Q126" s="60"/>
+      <c r="R126" s="60"/>
+      <c r="S126" s="60"/>
+      <c r="T126" s="60"/>
+      <c r="U126" s="60"/>
+      <c r="V126" s="60"/>
+      <c r="W126" s="60"/>
+      <c r="X126" s="60"/>
+      <c r="Y126" s="60"/>
+      <c r="Z126" s="60"/>
+      <c r="AA126" s="60"/>
+      <c r="AB126" s="60"/>
+      <c r="AC126" s="60"/>
+    </row>
+    <row r="127" spans="1:29" s="61" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="60"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="52" t="s">
+      <c r="E127" s="55"/>
+      <c r="F127" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G127" s="22">
+      <c r="G127" s="57">
         <v>4</v>
       </c>
-      <c r="H127" s="10"/>
-      <c r="I127" s="12">
+      <c r="H127" s="55"/>
+      <c r="I127" s="58">
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="J127" s="12">
+      <c r="J127" s="58">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="K127" s="12">
+      <c r="K127" s="58">
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7"/>
-      <c r="T127" s="7"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
-      <c r="W127" s="7"/>
-      <c r="X127" s="7"/>
-      <c r="Y127" s="7"/>
-      <c r="Z127" s="7"/>
-      <c r="AA127" s="7"/>
-      <c r="AB127" s="7"/>
-      <c r="AC127" s="7"/>
+      <c r="L127" s="59"/>
+      <c r="M127" s="59"/>
+      <c r="N127" s="60"/>
+      <c r="O127" s="60"/>
+      <c r="P127" s="60"/>
+      <c r="Q127" s="60"/>
+      <c r="R127" s="60"/>
+      <c r="S127" s="60"/>
+      <c r="T127" s="60"/>
+      <c r="U127" s="60"/>
+      <c r="V127" s="60"/>
+      <c r="W127" s="60"/>
+      <c r="X127" s="60"/>
+      <c r="Y127" s="60"/>
+      <c r="Z127" s="60"/>
+      <c r="AA127" s="60"/>
+      <c r="AB127" s="60"/>
+      <c r="AC127" s="60"/>
     </row>
     <row r="128" spans="1:29" s="49" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A128" s="48"/>
@@ -6855,53 +6870,53 @@
       <c r="AB136" s="7"/>
       <c r="AC136" s="7"/>
     </row>
-    <row r="137" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="19" t="s">
+    <row r="137" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D137" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="52" t="s">
+      <c r="E137" s="55"/>
+      <c r="F137" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G137" s="22">
+      <c r="G137" s="57">
         <v>6</v>
       </c>
-      <c r="H137" s="10"/>
-      <c r="I137" s="12">
+      <c r="H137" s="55"/>
+      <c r="I137" s="58">
         <f>IF(OR(F137 = "maybe", F137 = "yes"),G137, 0)</f>
         <v>6</v>
       </c>
-      <c r="J137" s="12">
+      <c r="J137" s="58">
         <f>IF(F137 = "yes",G137, 0)</f>
         <v>6</v>
       </c>
-      <c r="K137" s="12">
+      <c r="K137" s="58">
         <f>IF(F137 = "yes",G137, 0)</f>
         <v>6</v>
       </c>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="7"/>
-      <c r="T137" s="7"/>
-      <c r="U137" s="7"/>
-      <c r="V137" s="7"/>
-      <c r="W137" s="7"/>
-      <c r="X137" s="7"/>
-      <c r="Y137" s="7"/>
-      <c r="Z137" s="7"/>
-      <c r="AA137" s="7"/>
-      <c r="AB137" s="7"/>
-      <c r="AC137" s="7"/>
+      <c r="L137" s="59"/>
+      <c r="M137" s="59"/>
+      <c r="N137" s="60"/>
+      <c r="O137" s="60"/>
+      <c r="P137" s="60"/>
+      <c r="Q137" s="60"/>
+      <c r="R137" s="60"/>
+      <c r="S137" s="60"/>
+      <c r="T137" s="60"/>
+      <c r="U137" s="60"/>
+      <c r="V137" s="60"/>
+      <c r="W137" s="60"/>
+      <c r="X137" s="60"/>
+      <c r="Y137" s="60"/>
+      <c r="Z137" s="60"/>
+      <c r="AA137" s="60"/>
+      <c r="AB137" s="60"/>
+      <c r="AC137" s="60"/>
     </row>
     <row r="138" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="7"/>
@@ -7008,23 +7023,23 @@
       <c r="AB140" s="7"/>
       <c r="AC140" s="7"/>
     </row>
-    <row r="141" spans="1:29" s="60" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A141" s="53"/>
-      <c r="B141" s="53"/>
-      <c r="C141" s="54" t="s">
+    <row r="141" spans="1:29" s="61" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A141" s="60"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="D141" s="55" t="s">
+      <c r="D141" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E141" s="53"/>
-      <c r="F141" s="52" t="s">
+      <c r="E141" s="60"/>
+      <c r="F141" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G141" s="56">
+      <c r="G141" s="57">
         <v>4</v>
       </c>
-      <c r="H141" s="57"/>
+      <c r="H141" s="55"/>
       <c r="I141" s="58">
         <f>IF(OR(F141 = "maybe", F141 = "yes"),G141, 0)</f>
         <v>4</v>
@@ -7039,22 +7054,22 @@
       </c>
       <c r="L141" s="59"/>
       <c r="M141" s="59"/>
-      <c r="N141" s="53"/>
-      <c r="O141" s="53"/>
-      <c r="P141" s="53"/>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="53"/>
-      <c r="T141" s="53"/>
-      <c r="U141" s="53"/>
-      <c r="V141" s="53"/>
-      <c r="W141" s="53"/>
-      <c r="X141" s="53"/>
-      <c r="Y141" s="53"/>
-      <c r="Z141" s="53"/>
-      <c r="AA141" s="53"/>
-      <c r="AB141" s="53"/>
-      <c r="AC141" s="53"/>
+      <c r="N141" s="60"/>
+      <c r="O141" s="60"/>
+      <c r="P141" s="60"/>
+      <c r="Q141" s="60"/>
+      <c r="R141" s="60"/>
+      <c r="S141" s="60"/>
+      <c r="T141" s="60"/>
+      <c r="U141" s="60"/>
+      <c r="V141" s="60"/>
+      <c r="W141" s="60"/>
+      <c r="X141" s="60"/>
+      <c r="Y141" s="60"/>
+      <c r="Z141" s="60"/>
+      <c r="AA141" s="60"/>
+      <c r="AB141" s="60"/>
+      <c r="AC141" s="60"/>
     </row>
     <row r="142" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A142" s="7"/>
@@ -7161,53 +7176,53 @@
       <c r="AB144" s="7"/>
       <c r="AC144" s="7"/>
     </row>
-    <row r="145" spans="1:29" ht="37" x14ac:dyDescent="0.45">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="19" t="s">
+    <row r="145" spans="1:29" s="61" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A145" s="60"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D145" s="20" t="s">
+      <c r="D145" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="52" t="s">
+      <c r="E145" s="55"/>
+      <c r="F145" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G145" s="22">
+      <c r="G145" s="57">
         <v>4</v>
       </c>
-      <c r="H145" s="10"/>
-      <c r="I145" s="12">
+      <c r="H145" s="55"/>
+      <c r="I145" s="58">
         <f>IF(OR(F145 = "maybe", F145 = "yes"),G145, 0)</f>
         <v>4</v>
       </c>
-      <c r="J145" s="12">
+      <c r="J145" s="58">
         <f>IF(F145 = "yes",G145, 0)</f>
         <v>4</v>
       </c>
-      <c r="K145" s="12">
+      <c r="K145" s="58">
         <f>IF(F145 = "yes",G145, 0)</f>
         <v>4</v>
       </c>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="7"/>
-      <c r="R145" s="7"/>
-      <c r="S145" s="7"/>
-      <c r="T145" s="7"/>
-      <c r="U145" s="7"/>
-      <c r="V145" s="7"/>
-      <c r="W145" s="7"/>
-      <c r="X145" s="7"/>
-      <c r="Y145" s="7"/>
-      <c r="Z145" s="7"/>
-      <c r="AA145" s="7"/>
-      <c r="AB145" s="7"/>
-      <c r="AC145" s="7"/>
+      <c r="L145" s="59"/>
+      <c r="M145" s="59"/>
+      <c r="N145" s="60"/>
+      <c r="O145" s="60"/>
+      <c r="P145" s="60"/>
+      <c r="Q145" s="60"/>
+      <c r="R145" s="60"/>
+      <c r="S145" s="60"/>
+      <c r="T145" s="60"/>
+      <c r="U145" s="60"/>
+      <c r="V145" s="60"/>
+      <c r="W145" s="60"/>
+      <c r="X145" s="60"/>
+      <c r="Y145" s="60"/>
+      <c r="Z145" s="60"/>
+      <c r="AA145" s="60"/>
+      <c r="AB145" s="60"/>
+      <c r="AC145" s="60"/>
     </row>
     <row r="146" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A146" s="7"/>
@@ -7601,40 +7616,40 @@
       <c r="AB156" s="7"/>
       <c r="AC156" s="7"/>
     </row>
-    <row r="157" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A157" s="8"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="3" t="s">
+    <row r="157" spans="1:29" s="71" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A157" s="64"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="E157" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
-      <c r="P157" s="7"/>
-      <c r="Q157" s="7"/>
-      <c r="R157" s="7"/>
-      <c r="S157" s="7"/>
-      <c r="T157" s="7"/>
-      <c r="U157" s="7"/>
-      <c r="V157" s="7"/>
-      <c r="W157" s="7"/>
-      <c r="X157" s="7"/>
-      <c r="Y157" s="7"/>
-      <c r="Z157" s="7"/>
-      <c r="AA157" s="7"/>
-      <c r="AB157" s="7"/>
-      <c r="AC157" s="7"/>
+      <c r="E157" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F157" s="68"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="68"/>
+      <c r="J157" s="68"/>
+      <c r="K157" s="68"/>
+      <c r="L157" s="70"/>
+      <c r="M157" s="70"/>
+      <c r="N157" s="65"/>
+      <c r="O157" s="65"/>
+      <c r="P157" s="65"/>
+      <c r="Q157" s="65"/>
+      <c r="R157" s="65"/>
+      <c r="S157" s="65"/>
+      <c r="T157" s="65"/>
+      <c r="U157" s="65"/>
+      <c r="V157" s="65"/>
+      <c r="W157" s="65"/>
+      <c r="X157" s="65"/>
+      <c r="Y157" s="65"/>
+      <c r="Z157" s="65"/>
+      <c r="AA157" s="65"/>
+      <c r="AB157" s="65"/>
+      <c r="AC157" s="65"/>
     </row>
     <row r="158" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="8"/>
@@ -37699,5 +37714,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>